--- a/data/trans_orig/P57_AF_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57_AF_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{876FC3A8-194E-418F-9F29-F21E0A399666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8C7EEEB-EFFD-4DE6-A87B-CE52D46887F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7E7C418B-40FB-4269-8F1C-AF6B6D2E1824}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1C418DB7-6FF3-4A18-98DC-4E1B263BD41F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
-  <si>
-    <t>dukeAdic en 2007 (Tasa respuesta: 99,91%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -77,28 +77,28 @@
     <t>21,34%</t>
   </si>
   <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
   </si>
   <si>
     <t>26,24%</t>
   </si>
   <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>28,93%</t>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
   </si>
   <si>
     <t>24,09%</t>
   </si>
   <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
   </si>
   <si>
     <t>Apoyo normal</t>
@@ -107,28 +107,28 @@
     <t>78,66%</t>
   </si>
   <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
   </si>
   <si>
     <t>73,76%</t>
   </si>
   <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
   </si>
   <si>
     <t>75,91%</t>
   </si>
   <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
   </si>
   <si>
     <t>100%</t>
@@ -143,31 +143,31 @@
     <t>9,34%</t>
   </si>
   <si>
-    <t>12,56%</t>
+    <t>12,47%</t>
   </si>
   <si>
     <t>14,89%</t>
   </si>
   <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
   </si>
   <si>
     <t>12,82%</t>
   </si>
   <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
   </si>
   <si>
     <t>89,12%</t>
   </si>
   <si>
-    <t>87,44%</t>
+    <t>87,53%</t>
   </si>
   <si>
     <t>90,66%</t>
@@ -176,19 +176,19 @@
     <t>85,11%</t>
   </si>
   <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
   </si>
   <si>
     <t>87,18%</t>
   </si>
   <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -197,7 +197,7 @@
     <t>10,51%</t>
   </si>
   <si>
-    <t>8,05%</t>
+    <t>7,7%</t>
   </si>
   <si>
     <t>13,48%</t>
@@ -206,19 +206,19 @@
     <t>10,33%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
   </si>
   <si>
     <t>10,43%</t>
   </si>
   <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
   </si>
   <si>
     <t>89,49%</t>
@@ -227,43 +227,43 @@
     <t>86,52%</t>
   </si>
   <si>
-    <t>91,95%</t>
+    <t>92,3%</t>
   </si>
   <si>
     <t>89,67%</t>
   </si>
   <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
   </si>
   <si>
     <t>89,57%</t>
   </si>
   <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
   </si>
   <si>
     <t>14,12%</t>
   </si>
   <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
   </si>
   <si>
     <t>18,67%</t>
   </si>
   <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
   </si>
   <si>
     <t>16,43%</t>
@@ -272,31 +272,31 @@
     <t>15,57%</t>
   </si>
   <si>
-    <t>17,43%</t>
+    <t>17,39%</t>
   </si>
   <si>
     <t>85,88%</t>
   </si>
   <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
   </si>
   <si>
     <t>81,33%</t>
   </si>
   <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
   </si>
   <si>
     <t>83,57%</t>
   </si>
   <si>
-    <t>82,57%</t>
+    <t>82,61%</t>
   </si>
   <si>
     <t>84,43%</t>
@@ -305,637 +305,643 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>dukeAdic en 2012 (Tasa respuesta: 99,34%)</t>
+    <t>Población con apoyo afectivo bajo (Duke) en 2012 (Tasa respuesta: 99,34%)</t>
   </si>
   <si>
     <t>21,23%</t>
   </si>
   <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
   </si>
   <si>
     <t>22,24%</t>
   </si>
   <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
   </si>
   <si>
     <t>21,82%</t>
   </si>
   <si>
-    <t>23,54%</t>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
   </si>
   <si>
     <t>78,77%</t>
   </si>
   <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
+    <t>76,01%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
   </si>
   <si>
     <t>77,76%</t>
   </si>
   <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
   </si>
   <si>
     <t>78,18%</t>
   </si>
   <si>
-    <t>76,46%</t>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
   </si>
   <si>
     <t>15,7%</t>
   </si>
   <si>
-    <t>17,57%</t>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
   </si>
   <si>
     <t>18,8%</t>
   </si>
   <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
   </si>
   <si>
     <t>17,17%</t>
   </si>
   <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
   </si>
   <si>
     <t>84,3%</t>
   </si>
   <si>
-    <t>82,43%</t>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
   </si>
   <si>
     <t>81,2%</t>
   </si>
   <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
   </si>
   <si>
     <t>82,83%</t>
   </si>
   <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
   </si>
   <si>
     <t>13,55%</t>
   </si>
   <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
   </si>
   <si>
     <t>10,5%</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
   </si>
   <si>
     <t>12,06%</t>
   </si>
   <si>
-    <t>9,89%</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2015 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>82,17%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2023 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
   </si>
   <si>
     <t>14,65%</t>
   </si>
   <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>89,74%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
   </si>
   <si>
     <t>85,35%</t>
   </si>
   <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>81,61%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>dukeAdic en 2015 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>81,87%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>81,19%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>dukeAdic en 2023 (Tasa respuesta: 98,95%)</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
     <t>79,41%</t>
   </si>
   <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
   </si>
   <si>
     <t>81,57%</t>
   </si>
   <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1353,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CABFD79-CB2B-463C-8CBA-1714B3900F18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767750B3-0B6E-444D-8277-669D9F91F0BD}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2014,7 +2020,7 @@
         <v>5449</v>
       </c>
       <c r="N14" s="7">
-        <v>5556817</v>
+        <v>5556818</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -2065,7 +2071,7 @@
         <v>6505</v>
       </c>
       <c r="N15" s="7">
-        <v>6649248</v>
+        <v>6649249</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2098,7 +2104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B7BC1DA-38D7-4E7A-ACFF-EAB359F6D7CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C00CD1-9643-45E0-831A-242041F7AE07}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2249,16 +2255,16 @@
         <v>462</v>
       </c>
       <c r="N4" s="7">
-        <v>499038</v>
+        <v>499037</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,13 +2279,13 @@
         <v>759333</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>962</v>
@@ -2288,13 +2294,13 @@
         <v>1029131</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1670</v>
@@ -2303,13 +2309,13 @@
         <v>1788464</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2351,7 +2357,7 @@
         <v>2132</v>
       </c>
       <c r="N6" s="7">
-        <v>2287502</v>
+        <v>2287501</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2377,13 +2383,13 @@
         <v>307287</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>299</v>
@@ -2392,13 +2398,13 @@
         <v>328861</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>583</v>
@@ -2407,13 +2413,13 @@
         <v>636148</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2434,13 @@
         <v>1649597</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>1329</v>
@@ -2443,13 +2449,13 @@
         <v>1420241</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>2894</v>
@@ -2458,13 +2464,13 @@
         <v>3069838</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2538,13 @@
         <v>64744</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -2547,13 +2553,13 @@
         <v>47806</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>95</v>
@@ -2562,13 +2568,13 @@
         <v>112551</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,13 +2589,13 @@
         <v>413151</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>368</v>
@@ -2598,13 +2604,13 @@
         <v>407476</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>749</v>
@@ -2613,13 +2619,13 @@
         <v>820627</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2687,13 +2693,13 @@
         <v>576675</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="H13" s="7">
         <v>613</v>
@@ -2702,13 +2708,13 @@
         <v>671062</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="M13" s="7">
         <v>1140</v>
@@ -2717,13 +2723,13 @@
         <v>1247737</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2738,13 +2744,13 @@
         <v>2822081</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>116</v>
       </c>
       <c r="H14" s="7">
         <v>2659</v>
@@ -2753,13 +2759,13 @@
         <v>2856848</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>5313</v>
@@ -2768,13 +2774,13 @@
         <v>5678928</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +2855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CC13EB-1D9B-43CE-B96E-863BEDD00F19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4106116-5409-42C4-B26B-48F0E40A9739}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2866,7 +2872,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2973,13 +2979,13 @@
         <v>155800</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>211</v>
@@ -2988,13 +2994,13 @@
         <v>235758</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M4" s="7">
         <v>372</v>
@@ -3003,13 +3009,13 @@
         <v>391558</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3030,13 @@
         <v>593814</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H5" s="7">
         <v>679</v>
@@ -3039,13 +3045,13 @@
         <v>756747</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M5" s="7">
         <v>1276</v>
@@ -3054,13 +3060,13 @@
         <v>1350561</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,13 +3134,13 @@
         <v>305428</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H7" s="7">
         <v>299</v>
@@ -3143,13 +3149,13 @@
         <v>317850</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>145</v>
+        <v>183</v>
       </c>
       <c r="M7" s="7">
         <v>582</v>
@@ -3158,13 +3164,13 @@
         <v>623278</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3185,13 @@
         <v>1762180</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>1599</v>
@@ -3194,13 +3200,13 @@
         <v>1659578</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M8" s="7">
         <v>3260</v>
@@ -3209,13 +3215,13 @@
         <v>3421758</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,13 +3289,13 @@
         <v>42359</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="H10" s="7">
         <v>56</v>
@@ -3298,13 +3304,13 @@
         <v>61083</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="M10" s="7">
         <v>92</v>
@@ -3313,13 +3319,13 @@
         <v>103442</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,13 +3340,13 @@
         <v>502711</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H11" s="7">
         <v>465</v>
@@ -3349,13 +3355,13 @@
         <v>482444</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M11" s="7">
         <v>928</v>
@@ -3364,13 +3370,13 @@
         <v>985155</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,13 +3444,13 @@
         <v>503587</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="H13" s="7">
         <v>566</v>
@@ -3453,13 +3459,13 @@
         <v>614691</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M13" s="7">
         <v>1046</v>
@@ -3468,13 +3474,13 @@
         <v>1118277</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,13 +3495,13 @@
         <v>2858705</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H14" s="7">
         <v>2743</v>
@@ -3504,13 +3510,13 @@
         <v>2898769</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>5464</v>
@@ -3519,13 +3525,13 @@
         <v>5757475</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>118</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,7 +3606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E3D9EE-8265-4B98-B525-6A613DAC7125}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376C6CF4-A270-4DA3-9CA5-975576A748B1}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3617,7 +3623,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3724,13 +3730,13 @@
         <v>153782</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H4" s="7">
         <v>454</v>
@@ -3739,13 +3745,13 @@
         <v>261774</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M4" s="7">
         <v>659</v>
@@ -3754,13 +3760,13 @@
         <v>415556</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3781,13 @@
         <v>382125</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="H5" s="7">
         <v>941</v>
@@ -3790,13 +3796,13 @@
         <v>555728</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="M5" s="7">
         <v>1420</v>
@@ -3805,13 +3811,13 @@
         <v>937853</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3879,13 +3885,13 @@
         <v>322895</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="H7" s="7">
         <v>486</v>
@@ -3894,13 +3900,13 @@
         <v>451370</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="M7" s="7">
         <v>832</v>
@@ -3909,13 +3915,13 @@
         <v>774264</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,13 +3936,13 @@
         <v>1824592</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>2416</v>
@@ -3945,13 +3951,13 @@
         <v>1785786</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>4047</v>
@@ -3960,13 +3966,13 @@
         <v>3610378</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4034,13 +4040,13 @@
         <v>59126</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H10" s="7">
         <v>93</v>
@@ -4049,13 +4055,13 @@
         <v>62114</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="M10" s="7">
         <v>160</v>
@@ -4064,13 +4070,13 @@
         <v>121240</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4085,13 +4091,13 @@
         <v>606839</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>906</v>
@@ -4100,13 +4106,13 @@
         <v>648843</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M11" s="7">
         <v>1513</v>
@@ -4115,13 +4121,13 @@
         <v>1255682</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,28 +4195,28 @@
         <v>535803</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>127</v>
       </c>
       <c r="H13" s="7">
         <v>1033</v>
       </c>
       <c r="I13" s="7">
-        <v>775257</v>
+        <v>775258</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="M13" s="7">
         <v>1651</v>
@@ -4219,13 +4225,13 @@
         <v>1311061</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,13 +4246,13 @@
         <v>2813557</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>135</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>4263</v>
@@ -4255,13 +4261,13 @@
         <v>2990357</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M14" s="7">
         <v>6980</v>
@@ -4270,13 +4276,13 @@
         <v>5803913</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,7 +4309,7 @@
         <v>5296</v>
       </c>
       <c r="I15" s="7">
-        <v>3765614</v>
+        <v>3765615</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P57_AF_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57_AF_R-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8C7EEEB-EFFD-4DE6-A87B-CE52D46887F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{159E99F7-483B-4319-BBCF-13EF56D4E4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1C418DB7-6FF3-4A18-98DC-4E1B263BD41F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{130FBB6B-1946-45EA-BB0E-3DEF3E1066CF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
   <si>
     <t>Población con apoyo afectivo bajo (Duke) en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>21,34%</t>
   </si>
   <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
   </si>
   <si>
     <t>26,24%</t>
   </si>
   <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
   </si>
   <si>
     <t>24,09%</t>
   </si>
   <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>25,94%</t>
   </si>
   <si>
     <t>Apoyo normal</t>
@@ -107,28 +107,28 @@
     <t>78,66%</t>
   </si>
   <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
   </si>
   <si>
     <t>73,76%</t>
   </si>
   <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
   </si>
   <si>
     <t>75,91%</t>
   </si>
   <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,787 +140,793 @@
     <t>10,88%</t>
   </si>
   <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
   </si>
   <si>
     <t>14,89%</t>
   </si>
   <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2012 (Tasa respuesta: 99,34%)</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>77,76%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>79,21%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>82,64%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
     <t>13,2%</t>
   </si>
   <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
   </si>
   <si>
     <t>86,8%</t>
   </si>
   <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con apoyo afectivo bajo (Duke) en 2012 (Tasa respuesta: 99,34%)</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>23,57%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>81,42%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>81,48%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>83,76%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2023 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>28,75%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>74,75%</t>
+  </si>
+  <si>
+    <t>67,98%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>70,68%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>71,25%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
   </si>
   <si>
     <t>17,42%</t>
   </si>
   <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
   </si>
   <si>
     <t>82,58%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>Población con apoyo afectivo bajo (Duke) en 2015 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>82,17%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>Población con apoyo afectivo bajo (Duke) en 2023 (Tasa respuesta: 98,95%)</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
   </si>
   <si>
     <t>85,35%</t>
@@ -1353,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{767750B3-0B6E-444D-8277-669D9F91F0BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568B5719-9685-44B8-B084-39DCFAEB026F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1945,10 +1951,10 @@
         <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>599</v>
@@ -1957,13 +1963,13 @@
         <v>630467</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>1056</v>
@@ -1972,13 +1978,13 @@
         <v>1092431</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,13 +1999,13 @@
         <v>2810062</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="H14" s="7">
         <v>2696</v>
@@ -2008,28 +2014,28 @@
         <v>2746755</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>5449</v>
       </c>
       <c r="N14" s="7">
-        <v>5556818</v>
+        <v>5556817</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2071,7 +2077,7 @@
         <v>6505</v>
       </c>
       <c r="N15" s="7">
-        <v>6649249</v>
+        <v>6649248</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2085,7 +2091,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2104,7 +2110,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C00CD1-9643-45E0-831A-242041F7AE07}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6B4A66-8203-4276-89E6-B8D841F1D1DF}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2121,7 +2127,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2228,13 +2234,13 @@
         <v>204643</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>273</v>
@@ -2243,28 +2249,28 @@
         <v>294395</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>462</v>
       </c>
       <c r="N4" s="7">
-        <v>499037</v>
+        <v>499038</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,13 +2285,13 @@
         <v>759333</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H5" s="7">
         <v>962</v>
@@ -2294,13 +2300,13 @@
         <v>1029131</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>1670</v>
@@ -2309,13 +2315,13 @@
         <v>1788464</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,7 +2363,7 @@
         <v>2132</v>
       </c>
       <c r="N6" s="7">
-        <v>2287501</v>
+        <v>2287502</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2383,13 +2389,13 @@
         <v>307287</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>299</v>
@@ -2398,13 +2404,13 @@
         <v>328861</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>583</v>
@@ -2413,13 +2419,13 @@
         <v>636148</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2440,13 @@
         <v>1649597</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>1329</v>
@@ -2449,13 +2455,13 @@
         <v>1420241</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>2894</v>
@@ -2464,13 +2470,13 @@
         <v>3069838</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,13 +2544,13 @@
         <v>64744</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>41</v>
@@ -2553,13 +2559,13 @@
         <v>47806</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>95</v>
@@ -2568,13 +2574,13 @@
         <v>112551</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,13 +2595,13 @@
         <v>413151</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H11" s="7">
         <v>368</v>
@@ -2604,13 +2610,13 @@
         <v>407476</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M11" s="7">
         <v>749</v>
@@ -2619,13 +2625,13 @@
         <v>820627</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2699,13 @@
         <v>576675</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H13" s="7">
         <v>613</v>
@@ -2708,13 +2714,13 @@
         <v>671062</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M13" s="7">
         <v>1140</v>
@@ -2723,13 +2729,13 @@
         <v>1247737</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,13 +2750,13 @@
         <v>2822081</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H14" s="7">
         <v>2659</v>
@@ -2836,7 +2842,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2855,7 +2861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4106116-5409-42C4-B26B-48F0E40A9739}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A2C494-65E3-4365-86EF-6F4D7E9D0202}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3587,7 +3593,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3606,7 +3612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{376C6CF4-A270-4DA3-9CA5-975576A748B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43873594-4817-4476-9F6A-975364EB201F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4201,7 +4207,7 @@
         <v>286</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>127</v>
+        <v>287</v>
       </c>
       <c r="H13" s="7">
         <v>1033</v>
@@ -4210,13 +4216,13 @@
         <v>775258</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M13" s="7">
         <v>1651</v>
@@ -4225,13 +4231,13 @@
         <v>1311061</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,13 +4252,13 @@
         <v>2813557</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>135</v>
+        <v>295</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H14" s="7">
         <v>4263</v>
@@ -4261,13 +4267,13 @@
         <v>2990357</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M14" s="7">
         <v>6980</v>
@@ -4276,13 +4282,13 @@
         <v>5803913</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,7 +4344,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57_AF_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57_AF_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{159E99F7-483B-4319-BBCF-13EF56D4E4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AAD43D1-8EFB-4F81-88D9-446023204E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{130FBB6B-1946-45EA-BB0E-3DEF3E1066CF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F9A0BD94-24B4-457D-9470-E982AC848037}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
   <si>
     <t>Población con apoyo afectivo bajo (Duke) en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -74,61 +74,61 @@
     <t>Apoyo bajo</t>
   </si>
   <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>25,94%</t>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>63,98%</t>
+  </si>
+  <si>
+    <t>69,83%</t>
+  </si>
+  <si>
+    <t>67,4%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
   </si>
   <si>
     <t>Apoyo normal</t>
   </si>
   <si>
-    <t>78,66%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>75,91%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>36,02%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,163 +137,169 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>84,45%</t>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>52,26%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>46,7%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>62,89%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -302,652 +308,634 @@
     <t>Población con apoyo afectivo bajo (Duke) en 2012 (Tasa respuesta: 99,34%)</t>
   </si>
   <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>33,67%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>58,08%</t>
+  </si>
+  <si>
+    <t>62,41%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>61,43%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>61,89%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
+  </si>
+  <si>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>39,98%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>Población con apoyo afectivo bajo (Duke) en 2016 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>62,59%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
   </si>
   <si>
     <t>24,95%</t>
   </si>
   <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>81,2%</t>
-  </si>
-  <si>
-    <t>79,21%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>85,85%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>82,41%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>Población con apoyo afectivo bajo (Duke) en 2016 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>83,93%</t>
-  </si>
-  <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
+    <t>23,84%</t>
   </si>
   <si>
     <t>Población con apoyo afectivo bajo (Duke) en 2023 (Tasa respuesta: 98,95%)</t>
   </si>
   <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>28,75%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>71,25%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>66,83%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>57,96%</t>
+  </si>
+  <si>
+    <t>55,46%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>42,04%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>49,68%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>56,32%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>46,76%</t>
+  </si>
+  <si>
+    <t>40,86%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
   </si>
 </sst>
 </file>
@@ -1359,7 +1347,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{568B5719-9685-44B8-B084-39DCFAEB026F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6CA217-13D0-42D3-85A3-13A4A999969F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1477,10 +1465,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>219</v>
+        <v>694</v>
       </c>
       <c r="D4" s="7">
-        <v>220219</v>
+        <v>692720</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1492,10 +1480,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>334</v>
+        <v>863</v>
       </c>
       <c r="I4" s="7">
-        <v>345088</v>
+        <v>886450</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1507,10 +1495,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>553</v>
+        <v>1557</v>
       </c>
       <c r="N4" s="7">
-        <v>565307</v>
+        <v>1579170</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1528,10 +1516,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>819</v>
+        <v>344</v>
       </c>
       <c r="D5" s="7">
-        <v>811504</v>
+        <v>339003</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1543,10 +1531,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>957</v>
+        <v>428</v>
       </c>
       <c r="I5" s="7">
-        <v>970025</v>
+        <v>428663</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1558,10 +1546,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1776</v>
+        <v>772</v>
       </c>
       <c r="N5" s="7">
-        <v>1781529</v>
+        <v>767666</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1632,10 +1620,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>184</v>
+        <v>968</v>
       </c>
       <c r="D7" s="7">
-        <v>184065</v>
+        <v>982134</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1647,10 +1635,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>220</v>
+        <v>913</v>
       </c>
       <c r="I7" s="7">
-        <v>236180</v>
+        <v>935535</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1662,10 +1650,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>404</v>
+        <v>1881</v>
       </c>
       <c r="N7" s="7">
-        <v>420244</v>
+        <v>1917669</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1683,10 +1671,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1463</v>
+        <v>679</v>
       </c>
       <c r="D8" s="7">
-        <v>1507666</v>
+        <v>709597</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1698,10 +1686,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>1332</v>
+        <v>639</v>
       </c>
       <c r="I8" s="7">
-        <v>1349518</v>
+        <v>650163</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1713,10 +1701,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>2795</v>
+        <v>1318</v>
       </c>
       <c r="N8" s="7">
-        <v>2857185</v>
+        <v>1359760</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1787,10 +1775,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>54</v>
+        <v>299</v>
       </c>
       <c r="D10" s="7">
-        <v>57680</v>
+        <v>311206</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1802,10 +1790,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="I10" s="7">
-        <v>49200</v>
+        <v>246395</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1817,10 +1805,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>99</v>
+        <v>532</v>
       </c>
       <c r="N10" s="7">
-        <v>106880</v>
+        <v>557601</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1838,10 +1826,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>471</v>
+        <v>226</v>
       </c>
       <c r="D11" s="7">
-        <v>490892</v>
+        <v>237366</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1853,10 +1841,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>407</v>
+        <v>219</v>
       </c>
       <c r="I11" s="7">
-        <v>427212</v>
+        <v>230017</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1868,10 +1856,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>878</v>
+        <v>445</v>
       </c>
       <c r="N11" s="7">
-        <v>918104</v>
+        <v>467383</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1942,49 +1930,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>457</v>
+        <v>1961</v>
       </c>
       <c r="D13" s="7">
-        <v>461964</v>
+        <v>1986059</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>599</v>
+        <v>2009</v>
       </c>
       <c r="I13" s="7">
-        <v>630467</v>
+        <v>2068380</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>1056</v>
+        <v>3970</v>
       </c>
       <c r="N13" s="7">
-        <v>1092431</v>
+        <v>4054439</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,49 +1981,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2753</v>
+        <v>1249</v>
       </c>
       <c r="D14" s="7">
-        <v>2810062</v>
+        <v>1285967</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>2696</v>
+        <v>1286</v>
       </c>
       <c r="I14" s="7">
-        <v>2746755</v>
+        <v>1308842</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>5449</v>
+        <v>2535</v>
       </c>
       <c r="N14" s="7">
-        <v>5556817</v>
+        <v>2594809</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2091,7 +2079,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2110,7 +2098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A6B4A66-8203-4276-89E6-B8D841F1D1DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6CCCA7-FB7E-40F6-83CC-C49C23DE2E4E}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2127,7 +2115,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2228,49 +2216,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>189</v>
+        <v>591</v>
       </c>
       <c r="D4" s="7">
-        <v>204643</v>
+        <v>642587</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
-        <v>273</v>
+        <v>858</v>
       </c>
       <c r="I4" s="7">
-        <v>294395</v>
+        <v>920947</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M4" s="7">
-        <v>462</v>
+        <v>1449</v>
       </c>
       <c r="N4" s="7">
-        <v>499038</v>
+        <v>1563533</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,49 +2267,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>708</v>
+        <v>306</v>
       </c>
       <c r="D5" s="7">
-        <v>759333</v>
+        <v>321389</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H5" s="7">
-        <v>962</v>
+        <v>377</v>
       </c>
       <c r="I5" s="7">
-        <v>1029131</v>
+        <v>402579</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M5" s="7">
-        <v>1670</v>
+        <v>683</v>
       </c>
       <c r="N5" s="7">
-        <v>1788464</v>
+        <v>723969</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,49 +2371,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>284</v>
+        <v>1112</v>
       </c>
       <c r="D7" s="7">
-        <v>307287</v>
+        <v>1181638</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H7" s="7">
-        <v>299</v>
+        <v>1089</v>
       </c>
       <c r="I7" s="7">
-        <v>328861</v>
+        <v>1176291</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M7" s="7">
-        <v>583</v>
+        <v>2201</v>
       </c>
       <c r="N7" s="7">
-        <v>636148</v>
+        <v>2357929</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,49 +2422,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1565</v>
+        <v>737</v>
       </c>
       <c r="D8" s="7">
-        <v>1649597</v>
+        <v>775246</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H8" s="7">
-        <v>1329</v>
+        <v>539</v>
       </c>
       <c r="I8" s="7">
-        <v>1420241</v>
+        <v>572811</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M8" s="7">
-        <v>2894</v>
+        <v>1276</v>
       </c>
       <c r="N8" s="7">
-        <v>3069838</v>
+        <v>1348057</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,49 +2526,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="D10" s="7">
-        <v>64744</v>
+        <v>279159</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H10" s="7">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="I10" s="7">
-        <v>47806</v>
+        <v>259225</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M10" s="7">
-        <v>95</v>
+        <v>488</v>
       </c>
       <c r="N10" s="7">
-        <v>112551</v>
+        <v>538384</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2589,49 +2577,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>381</v>
+        <v>181</v>
       </c>
       <c r="D11" s="7">
-        <v>413151</v>
+        <v>198736</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H11" s="7">
-        <v>368</v>
+        <v>175</v>
       </c>
       <c r="I11" s="7">
-        <v>407476</v>
+        <v>196057</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M11" s="7">
-        <v>749</v>
+        <v>356</v>
       </c>
       <c r="N11" s="7">
-        <v>820627</v>
+        <v>394794</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,49 +2681,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>527</v>
+        <v>1957</v>
       </c>
       <c r="D13" s="7">
-        <v>576675</v>
+        <v>2103384</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H13" s="7">
-        <v>613</v>
+        <v>2181</v>
       </c>
       <c r="I13" s="7">
-        <v>671062</v>
+        <v>2356462</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M13" s="7">
-        <v>1140</v>
+        <v>4138</v>
       </c>
       <c r="N13" s="7">
-        <v>1247737</v>
+        <v>4459846</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,49 +2732,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2654</v>
+        <v>1224</v>
       </c>
       <c r="D14" s="7">
-        <v>2822081</v>
+        <v>1295372</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H14" s="7">
-        <v>2659</v>
+        <v>1091</v>
       </c>
       <c r="I14" s="7">
-        <v>2856848</v>
+        <v>1171448</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M14" s="7">
-        <v>5313</v>
+        <v>2315</v>
       </c>
       <c r="N14" s="7">
-        <v>5678928</v>
+        <v>2466819</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2842,7 +2830,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2861,7 +2849,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60A2C494-65E3-4365-86EF-6F4D7E9D0202}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48575E17-9C4C-47CE-957F-61925EBB404C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2878,7 +2866,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2979,49 +2967,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>161</v>
+        <v>573</v>
       </c>
       <c r="D4" s="7">
-        <v>155800</v>
+        <v>566585</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H4" s="7">
-        <v>211</v>
+        <v>717</v>
       </c>
       <c r="I4" s="7">
-        <v>235758</v>
+        <v>802126</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M4" s="7">
-        <v>372</v>
+        <v>1290</v>
       </c>
       <c r="N4" s="7">
-        <v>391558</v>
+        <v>1368711</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3030,49 +3018,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>597</v>
+        <v>185</v>
       </c>
       <c r="D5" s="7">
-        <v>593814</v>
+        <v>183029</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H5" s="7">
-        <v>679</v>
+        <v>173</v>
       </c>
       <c r="I5" s="7">
-        <v>756747</v>
+        <v>190379</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M5" s="7">
-        <v>1276</v>
+        <v>358</v>
       </c>
       <c r="N5" s="7">
-        <v>1350561</v>
+        <v>373408</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,49 +3122,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>283</v>
+        <v>1461</v>
       </c>
       <c r="D7" s="7">
-        <v>305428</v>
+        <v>1555321</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H7" s="7">
-        <v>299</v>
+        <v>1455</v>
       </c>
       <c r="I7" s="7">
-        <v>317850</v>
+        <v>1518549</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="M7" s="7">
-        <v>582</v>
+        <v>2916</v>
       </c>
       <c r="N7" s="7">
-        <v>623278</v>
+        <v>3073870</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,40 +3173,40 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1661</v>
+        <v>483</v>
       </c>
       <c r="D8" s="7">
-        <v>1762180</v>
+        <v>512287</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
-        <v>1599</v>
+        <v>443</v>
       </c>
       <c r="I8" s="7">
-        <v>1659578</v>
+        <v>458879</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>192</v>
       </c>
       <c r="M8" s="7">
-        <v>3260</v>
+        <v>926</v>
       </c>
       <c r="N8" s="7">
-        <v>3421758</v>
+        <v>971166</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>193</v>
@@ -3289,10 +3277,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>36</v>
+        <v>334</v>
       </c>
       <c r="D10" s="7">
-        <v>42359</v>
+        <v>364603</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>196</v>
@@ -3304,10 +3292,10 @@
         <v>198</v>
       </c>
       <c r="H10" s="7">
-        <v>56</v>
+        <v>336</v>
       </c>
       <c r="I10" s="7">
-        <v>61083</v>
+        <v>352806</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>199</v>
@@ -3319,19 +3307,19 @@
         <v>201</v>
       </c>
       <c r="M10" s="7">
-        <v>92</v>
+        <v>670</v>
       </c>
       <c r="N10" s="7">
-        <v>103442</v>
+        <v>717409</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>202</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,49 +3328,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>463</v>
+        <v>165</v>
       </c>
       <c r="D11" s="7">
-        <v>502711</v>
+        <v>180467</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H11" s="7">
-        <v>465</v>
+        <v>185</v>
       </c>
       <c r="I11" s="7">
-        <v>482444</v>
+        <v>190721</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
-        <v>928</v>
+        <v>350</v>
       </c>
       <c r="N11" s="7">
-        <v>985155</v>
+        <v>371188</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3444,46 +3432,46 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>480</v>
+        <v>2368</v>
       </c>
       <c r="D13" s="7">
-        <v>503587</v>
+        <v>2486509</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2508</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2673481</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="M13" s="7">
+        <v>4876</v>
+      </c>
+      <c r="N13" s="7">
+        <v>5159990</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="H13" s="7">
-        <v>566</v>
-      </c>
-      <c r="I13" s="7">
-        <v>614691</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1046</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1118277</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>220</v>
@@ -3495,10 +3483,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2721</v>
+        <v>833</v>
       </c>
       <c r="D14" s="7">
-        <v>2858705</v>
+        <v>875783</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>221</v>
@@ -3510,34 +3498,34 @@
         <v>223</v>
       </c>
       <c r="H14" s="7">
-        <v>2743</v>
+        <v>801</v>
       </c>
       <c r="I14" s="7">
-        <v>2898769</v>
+        <v>839979</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>224</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1634</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1715762</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="M14" s="7">
-        <v>5464</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5757475</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>228</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3593,7 +3581,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3612,7 +3600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43873594-4817-4476-9F6A-975364EB201F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374C6045-4165-41BD-BA22-728BC4058DAB}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3629,7 +3617,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3730,49 +3718,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>205</v>
+        <v>442</v>
       </c>
       <c r="D4" s="7">
-        <v>153782</v>
+        <v>341748</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>930</v>
+      </c>
+      <c r="I4" s="7">
+        <v>546368</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="H4" s="7">
-        <v>454</v>
-      </c>
-      <c r="I4" s="7">
-        <v>261774</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>1372</v>
+      </c>
+      <c r="N4" s="7">
+        <v>888115</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="M4" s="7">
-        <v>659</v>
-      </c>
-      <c r="N4" s="7">
-        <v>415556</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,49 +3769,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>479</v>
+        <v>242</v>
       </c>
       <c r="D5" s="7">
-        <v>382125</v>
+        <v>194159</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>465</v>
+      </c>
+      <c r="I5" s="7">
+        <v>271134</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="H5" s="7">
-        <v>941</v>
-      </c>
-      <c r="I5" s="7">
-        <v>555728</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>707</v>
+      </c>
+      <c r="N5" s="7">
+        <v>465294</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="M5" s="7">
-        <v>1420</v>
-      </c>
-      <c r="N5" s="7">
-        <v>937853</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,49 +3873,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>346</v>
+        <v>1208</v>
       </c>
       <c r="D7" s="7">
-        <v>322895</v>
+        <v>1199963</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>1773</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1341182</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H7" s="7">
-        <v>486</v>
-      </c>
-      <c r="I7" s="7">
-        <v>451370</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>2981</v>
+      </c>
+      <c r="N7" s="7">
+        <v>2541145</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="M7" s="7">
-        <v>832</v>
-      </c>
-      <c r="N7" s="7">
-        <v>774264</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,49 +3924,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>1631</v>
+        <v>769</v>
       </c>
       <c r="D8" s="7">
-        <v>1824592</v>
+        <v>947524</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>1129</v>
+      </c>
+      <c r="I8" s="7">
+        <v>895974</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="H8" s="7">
-        <v>2416</v>
-      </c>
-      <c r="I8" s="7">
-        <v>1785786</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>1898</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1843497</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="M8" s="7">
-        <v>4047</v>
-      </c>
-      <c r="N8" s="7">
-        <v>3610378</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4040,49 +4028,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>67</v>
+        <v>363</v>
       </c>
       <c r="D10" s="7">
-        <v>59126</v>
+        <v>344740</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>504</v>
+      </c>
+      <c r="I10" s="7">
+        <v>339346</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="H10" s="7">
-        <v>93</v>
-      </c>
-      <c r="I10" s="7">
-        <v>62114</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>867</v>
+      </c>
+      <c r="N10" s="7">
+        <v>684086</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="M10" s="7">
-        <v>160</v>
-      </c>
-      <c r="N10" s="7">
-        <v>121240</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,49 +4079,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>607</v>
+        <v>311</v>
       </c>
       <c r="D11" s="7">
-        <v>606839</v>
+        <v>321225</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>495</v>
+      </c>
+      <c r="I11" s="7">
+        <v>371611</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="H11" s="7">
-        <v>906</v>
-      </c>
-      <c r="I11" s="7">
-        <v>648843</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>806</v>
+      </c>
+      <c r="N11" s="7">
+        <v>692836</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="M11" s="7">
-        <v>1513</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1255682</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,49 +4183,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>618</v>
+        <v>2013</v>
       </c>
       <c r="D13" s="7">
-        <v>535803</v>
+        <v>1886452</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>3207</v>
+      </c>
+      <c r="I13" s="7">
+        <v>2226895</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="H13" s="7">
-        <v>1033</v>
-      </c>
-      <c r="I13" s="7">
-        <v>775258</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>5220</v>
+      </c>
+      <c r="N13" s="7">
+        <v>4113347</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1651</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1311061</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,49 +4234,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2717</v>
+        <v>1322</v>
       </c>
       <c r="D14" s="7">
-        <v>2813557</v>
+        <v>1462908</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="H14" s="7">
+        <v>2089</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1538719</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="7">
+        <v>3411</v>
+      </c>
+      <c r="N14" s="7">
+        <v>3001627</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="H14" s="7">
-        <v>4263</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2990357</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="M14" s="7">
-        <v>6980</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5803913</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,7 +4303,7 @@
         <v>5296</v>
       </c>
       <c r="I15" s="7">
-        <v>3765615</v>
+        <v>3765614</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4344,7 +4332,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57_AF_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57_AF_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AAD43D1-8EFB-4F81-88D9-446023204E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBCD99B6-381F-4265-8F3F-075850C320BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F9A0BD94-24B4-457D-9470-E982AC848037}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{67997C94-3398-46E5-98A1-A916AD981F9A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="297">
   <si>
     <t>Población con apoyo afectivo bajo (Duke) en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -728,214 +728,208 @@
     <t>Población con apoyo afectivo bajo (Duke) en 2023 (Tasa respuesta: 98,95%)</t>
   </si>
   <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>34,38%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>59,95%</t>
-  </si>
-  <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>57,96%</t>
-  </si>
-  <si>
-    <t>55,46%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>42,04%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>56,32%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>40,86%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>65,93%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>56,27%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>54,8%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>50,61%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>50,78%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
+  </si>
+  <si>
+    <t>58,28%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>48,16%</t>
+  </si>
+  <si>
+    <t>43,59%</t>
+  </si>
+  <si>
+    <t>58,82%</t>
+  </si>
+  <si>
+    <t>41,72%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE6CA217-13D0-42D3-85A3-13A4A999969F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B660931-D293-4E90-9A76-A1FD2164FF9C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1498,7 +1492,7 @@
         <v>1557</v>
       </c>
       <c r="N4" s="7">
-        <v>1579170</v>
+        <v>1579169</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1600,7 +1594,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2098,7 +2092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6CCCA7-FB7E-40F6-83CC-C49C23DE2E4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D9208D-0E12-4DCE-9224-9EE6C4A0240D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2234,7 +2228,7 @@
         <v>858</v>
       </c>
       <c r="I4" s="7">
-        <v>920947</v>
+        <v>920946</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>92</v>
@@ -2300,7 +2294,7 @@
         <v>683</v>
       </c>
       <c r="N5" s="7">
-        <v>723969</v>
+        <v>723968</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>104</v>
@@ -2336,7 +2330,7 @@
         <v>1235</v>
       </c>
       <c r="I6" s="7">
-        <v>1323526</v>
+        <v>1323525</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2351,7 +2345,7 @@
         <v>2132</v>
       </c>
       <c r="N6" s="7">
-        <v>2287502</v>
+        <v>2287501</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2374,7 +2368,7 @@
         <v>1112</v>
       </c>
       <c r="D7" s="7">
-        <v>1181638</v>
+        <v>1181639</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>107</v>
@@ -2476,7 +2470,7 @@
         <v>1849</v>
       </c>
       <c r="D9" s="7">
-        <v>1956884</v>
+        <v>1956885</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2750,7 +2744,7 @@
         <v>1091</v>
       </c>
       <c r="I14" s="7">
-        <v>1171448</v>
+        <v>1171447</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>155</v>
@@ -2801,7 +2795,7 @@
         <v>3272</v>
       </c>
       <c r="I15" s="7">
-        <v>3527910</v>
+        <v>3527909</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2849,7 +2843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48575E17-9C4C-47CE-957F-61925EBB404C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EAE1DD-6C39-4036-A944-00F7F4427537}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3600,7 +3594,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374C6045-4165-41BD-BA22-728BC4058DAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41477477-4E9B-4EFE-B774-D2A497234690}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3721,7 +3715,7 @@
         <v>442</v>
       </c>
       <c r="D4" s="7">
-        <v>341748</v>
+        <v>320059</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>229</v>
@@ -3736,7 +3730,7 @@
         <v>930</v>
       </c>
       <c r="I4" s="7">
-        <v>546368</v>
+        <v>487015</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>232</v>
@@ -3751,7 +3745,7 @@
         <v>1372</v>
       </c>
       <c r="N4" s="7">
-        <v>888115</v>
+        <v>807074</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>235</v>
@@ -3760,7 +3754,7 @@
         <v>236</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,46 +3766,46 @@
         <v>242</v>
       </c>
       <c r="D5" s="7">
-        <v>194159</v>
+        <v>189428</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H5" s="7">
         <v>465</v>
       </c>
       <c r="I5" s="7">
-        <v>271134</v>
+        <v>251698</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M5" s="7">
         <v>707</v>
       </c>
       <c r="N5" s="7">
-        <v>465294</v>
+        <v>441126</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,7 +3817,7 @@
         <v>684</v>
       </c>
       <c r="D6" s="7">
-        <v>535907</v>
+        <v>509487</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3838,7 +3832,7 @@
         <v>1395</v>
       </c>
       <c r="I6" s="7">
-        <v>817502</v>
+        <v>738713</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3853,7 +3847,7 @@
         <v>2079</v>
       </c>
       <c r="N6" s="7">
-        <v>1353409</v>
+        <v>1248200</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3876,46 +3870,46 @@
         <v>1208</v>
       </c>
       <c r="D7" s="7">
-        <v>1199963</v>
+        <v>1127919</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H7" s="7">
         <v>1773</v>
       </c>
       <c r="I7" s="7">
-        <v>1341182</v>
+        <v>1313565</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M7" s="7">
         <v>2981</v>
       </c>
       <c r="N7" s="7">
-        <v>2541145</v>
+        <v>2441483</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,46 +3921,46 @@
         <v>769</v>
       </c>
       <c r="D8" s="7">
-        <v>947524</v>
+        <v>1148074</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H8" s="7">
         <v>1129</v>
       </c>
       <c r="I8" s="7">
-        <v>895974</v>
+        <v>912689</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>259</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>1898</v>
       </c>
       <c r="N8" s="7">
-        <v>1843497</v>
+        <v>2060764</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,7 +3972,7 @@
         <v>1977</v>
       </c>
       <c r="D9" s="7">
-        <v>2147487</v>
+        <v>2275993</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3993,7 +3987,7 @@
         <v>2902</v>
       </c>
       <c r="I9" s="7">
-        <v>2237156</v>
+        <v>2226254</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4008,7 +4002,7 @@
         <v>4879</v>
       </c>
       <c r="N9" s="7">
-        <v>4384642</v>
+        <v>4502247</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4031,46 +4025,46 @@
         <v>363</v>
       </c>
       <c r="D10" s="7">
-        <v>344740</v>
+        <v>328054</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>504</v>
       </c>
       <c r="I10" s="7">
-        <v>339346</v>
+        <v>310868</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>867</v>
       </c>
       <c r="N10" s="7">
-        <v>684086</v>
+        <v>638922</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,46 +4076,46 @@
         <v>311</v>
       </c>
       <c r="D11" s="7">
-        <v>321225</v>
+        <v>312239</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="H11" s="7">
         <v>495</v>
       </c>
       <c r="I11" s="7">
-        <v>371611</v>
+        <v>346963</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M11" s="7">
         <v>806</v>
       </c>
       <c r="N11" s="7">
-        <v>692836</v>
+        <v>659202</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,7 +4127,7 @@
         <v>674</v>
       </c>
       <c r="D12" s="7">
-        <v>665965</v>
+        <v>640293</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4148,7 +4142,7 @@
         <v>999</v>
       </c>
       <c r="I12" s="7">
-        <v>710957</v>
+        <v>657831</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4163,7 +4157,7 @@
         <v>1673</v>
       </c>
       <c r="N12" s="7">
-        <v>1376922</v>
+        <v>1298124</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4186,46 +4180,46 @@
         <v>2013</v>
       </c>
       <c r="D13" s="7">
-        <v>1886452</v>
+        <v>1776030</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H13" s="7">
         <v>3207</v>
       </c>
       <c r="I13" s="7">
-        <v>2226895</v>
+        <v>2111448</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>39</v>
+        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="M13" s="7">
         <v>5220</v>
       </c>
       <c r="N13" s="7">
-        <v>4113347</v>
+        <v>3887479</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,46 +4231,46 @@
         <v>1322</v>
       </c>
       <c r="D14" s="7">
-        <v>1462908</v>
+        <v>1649742</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H14" s="7">
         <v>2089</v>
       </c>
       <c r="I14" s="7">
-        <v>1538719</v>
+        <v>1511350</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>49</v>
+        <v>293</v>
       </c>
       <c r="M14" s="7">
         <v>3411</v>
       </c>
       <c r="N14" s="7">
-        <v>3001627</v>
+        <v>3161091</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,7 +4282,7 @@
         <v>3335</v>
       </c>
       <c r="D15" s="7">
-        <v>3349360</v>
+        <v>3425772</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4303,7 +4297,7 @@
         <v>5296</v>
       </c>
       <c r="I15" s="7">
-        <v>3765614</v>
+        <v>3622798</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4318,7 +4312,7 @@
         <v>8631</v>
       </c>
       <c r="N15" s="7">
-        <v>7114974</v>
+        <v>7048570</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
